--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,157 +40,160 @@
     <t>name</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>seriously</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>much</t>
+    <t>true</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>watching</t>
   </si>
   <si>
     <t>’</t>
@@ -562,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,16 +747,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9545454545454546</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9423076923076923</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.7368421052631579</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,10 +879,10 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.5862068965517241</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.5263157894736842</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,16 +1047,16 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.4833333333333333</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,38 +1076,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6875</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L12">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12">
-        <v>0.3703703703703703</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.65</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.675</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.2916666666666667</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.25</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5882352941176471</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.1639344262295082</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5869565217391305</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C17">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.1538461538461539</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L17">
         <v>10</v>
@@ -1365,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,37 +1376,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5217391304347826</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>12</v>
       </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="J18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>0.1549295774647887</v>
+      </c>
+      <c r="L18">
         <v>11</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18">
-        <v>0.1320582877959927</v>
-      </c>
-      <c r="L18">
-        <v>145</v>
-      </c>
       <c r="M18">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1415,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>953</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1423,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,16 +1447,16 @@
         <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.1267605633802817</v>
+        <v>0.1329690346083789</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1465,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>62</v>
+        <v>952</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
         <v>0.1052631578947368</v>
@@ -1523,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4680851063829787</v>
+        <v>0.55</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1541,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.09187279151943463</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1565,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>257</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1573,13 +1576,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4615384615384616</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.07936507936507936</v>
+        <v>0.06984126984126984</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1615,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1623,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1641,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.05120481927710843</v>
+        <v>0.06360424028268551</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1665,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>630</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1673,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4102564102564102</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1691,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.04814814814814815</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1715,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>514</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1723,38 +1726,38 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3428571428571429</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25">
+        <v>0.03519061583577713</v>
+      </c>
+      <c r="L25">
         <v>12</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>12</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>23</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25">
-        <v>0.04220779220779221</v>
-      </c>
-      <c r="L25">
-        <v>26</v>
-      </c>
-      <c r="M25">
-        <v>26</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>590</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1773,13 +1776,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3214285714285715</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1791,31 +1794,31 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>29</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.03094462540716612</v>
+      </c>
+      <c r="L26">
         <v>19</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26">
-        <v>0.02649769585253456</v>
-      </c>
-      <c r="L26">
-        <v>46</v>
-      </c>
       <c r="M26">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1690</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1823,13 +1826,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2051282051282051</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1841,57 +1844,81 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.02647058823529412</v>
+        <v>0.02995391705069124</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="M27">
+        <v>52</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>63</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.01282051282051282</v>
+      </c>
+      <c r="L28">
         <v>10</v>
       </c>
-      <c r="N27">
-        <v>0.9</v>
-      </c>
-      <c r="O27">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28">
-        <v>0.01920614596670935</v>
-      </c>
-      <c r="L28">
-        <v>15</v>
-      </c>
       <c r="M28">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
